--- a/Документация/Профиль НТ.xlsx
+++ b/Документация/Профиль НТ.xlsx
@@ -5,19 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\asfdfg\load-testing\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A12A71-4E39-423F-97C7-45080677D9A8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A73914-1E36-41B9-B3F4-E509FC025C3C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId2"/>
+    <pivotCache cacheId="3" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="64">
   <si>
     <t>Покупка билета</t>
   </si>
@@ -174,6 +175,57 @@
   </si>
   <si>
     <t>Поиск билета (без выбора) 07_SearchTicketNoSelect</t>
+  </si>
+  <si>
+    <t>Профиль для 12 VU</t>
+  </si>
+  <si>
+    <t>Наименование операции</t>
+  </si>
+  <si>
+    <t>Наименование транзакции</t>
+  </si>
+  <si>
+    <t>По профилю</t>
+  </si>
+  <si>
+    <t>По факту</t>
+  </si>
+  <si>
+    <t>% отклонения</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>search_flights</t>
+  </si>
+  <si>
+    <t>select_ticket</t>
+  </si>
+  <si>
+    <t>pay_ticket</t>
+  </si>
+  <si>
+    <t>viewing_receipt</t>
+  </si>
+  <si>
+    <t>cancel_booking</t>
+  </si>
+  <si>
+    <t>logout</t>
+  </si>
+  <si>
+    <t>createNewAcc</t>
+  </si>
+  <si>
+    <t>Поиск максимума 3 ступень</t>
+  </si>
+  <si>
+    <t>Подтверждение максимума</t>
+  </si>
+  <si>
+    <t>debag</t>
   </si>
 </sst>
 </file>
@@ -184,12 +236,20 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,8 +343,40 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,6 +431,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="35">
     <border>
@@ -793,24 +909,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -842,22 +960,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
@@ -873,70 +975,136 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="11" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="13" fillId="12" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="12" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="13" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="13" fillId="13" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="13" fillId="13" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="2" xr:uid="{1EF4CBDF-7BDB-4E87-A4C3-77F16B497FB1}"/>
+    <cellStyle name="Обычный 3" xfId="3" xr:uid="{217317CD-797F-4A0E-9EFB-12F34EC3A739}"/>
     <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
@@ -954,7 +1122,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Пользователь" refreshedDate="44098.837226967589" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{C72313CC-959A-413B-B055-8FDD07D1FBD0}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Пользователь" refreshedDate="44100.078241087962" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{C72313CC-959A-413B-B055-8FDD07D1FBD0}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B3:I31" sheet="Sheet1"/>
   </cacheSource>
@@ -1287,7 +1455,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AAFFEB72-E2DD-4F51-83A6-04D3F7A6AA30}" name="Сводная таблица4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AAFFEB72-E2DD-4F51-83A6-04D3F7A6AA30}" name="Сводная таблица4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J3:K12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -1350,7 +1518,7 @@
     <dataField name="Сумма по полю Итого" fld="7" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -1631,8 +1799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Z42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1645,14 +1813,14 @@
     <col min="7" max="7" width="20.85546875" customWidth="1"/>
     <col min="8" max="8" width="13.140625" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="10" max="10" width="25.85546875" customWidth="1"/>
     <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.28515625" customWidth="1"/>
     <col min="14" max="14" width="60.140625" customWidth="1"/>
     <col min="15" max="15" width="9.7109375" customWidth="1"/>
     <col min="16" max="16" width="10.5703125" customWidth="1"/>
     <col min="17" max="17" width="19.140625" customWidth="1"/>
-    <col min="20" max="20" width="17.140625" customWidth="1"/>
+    <col min="20" max="20" width="20" customWidth="1"/>
     <col min="21" max="21" width="19.28515625" customWidth="1"/>
     <col min="22" max="22" width="14.85546875" customWidth="1"/>
     <col min="23" max="23" width="18.5703125" customWidth="1"/>
@@ -1663,10 +1831,10 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="49" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1675,57 +1843,57 @@
       <c r="F3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="58" t="s">
+      <c r="H3" s="50" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="61" t="s">
+      <c r="J3" s="53" t="s">
         <v>11</v>
       </c>
       <c r="K3" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="61"/>
-      <c r="N3" s="87" t="s">
+      <c r="L3" s="53"/>
+      <c r="N3" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="88" t="s">
+      <c r="O3" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="89" t="s">
+      <c r="P3" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" s="89" t="s">
+      <c r="Q3" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="S3" s="89" t="s">
+      <c r="S3" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="90" t="s">
+      <c r="T3" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="94" t="s">
+      <c r="U3" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="94" t="s">
+      <c r="V3" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="94" t="s">
+      <c r="W3" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="X3" s="95" t="s">
+      <c r="X3" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="Y3" s="95"/>
-      <c r="Z3" s="95"/>
+      <c r="Y3" s="96"/>
+      <c r="Z3" s="96"/>
     </row>
     <row r="4" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
@@ -1737,10 +1905,10 @@
       <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="71">
+      <c r="E4" s="63">
         <v>2</v>
       </c>
-      <c r="F4" s="72">
+      <c r="F4" s="64">
         <v>130</v>
       </c>
       <c r="G4" s="8">
@@ -1749,25 +1917,25 @@
       <c r="H4" s="3">
         <v>20</v>
       </c>
-      <c r="I4" s="68">
+      <c r="I4" s="60">
         <v>18.461538461538463</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="75">
+      <c r="K4" s="67">
         <v>134.75698295512538</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="81">
+      <c r="O4" s="71">
         <v>10.027799999999999</v>
       </c>
-      <c r="P4" s="78">
+      <c r="P4" s="68">
         <v>44.961500000000001</v>
       </c>
-      <c r="Q4" s="79">
+      <c r="Q4" s="69">
         <v>54.9893</v>
       </c>
       <c r="R4" s="20">
@@ -1776,19 +1944,19 @@
       <c r="S4" s="20">
         <v>2</v>
       </c>
-      <c r="T4" s="80">
+      <c r="T4" s="70">
         <v>0.46153846153846156</v>
       </c>
-      <c r="U4" s="91">
-        <v>20</v>
-      </c>
-      <c r="V4" s="92">
+      <c r="U4" s="81">
+        <v>20</v>
+      </c>
+      <c r="V4" s="82">
         <v>18</v>
       </c>
-      <c r="W4" s="93">
+      <c r="W4" s="83">
         <v>0.16666666666666666</v>
       </c>
-      <c r="X4" s="91">
+      <c r="X4" s="81">
         <v>12</v>
       </c>
     </row>
@@ -1802,37 +1970,37 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="73">
+      <c r="E5" s="65">
         <v>2</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="46">
         <v>130</v>
       </c>
-      <c r="G5" s="53">
+      <c r="G5" s="45">
         <v>0.46153846153846156</v>
       </c>
       <c r="H5">
         <v>20</v>
       </c>
-      <c r="I5" s="69">
+      <c r="I5" s="61">
         <v>18.461538461538463</v>
       </c>
-      <c r="J5" s="59" t="s">
+      <c r="J5" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="75">
+      <c r="K5" s="67">
         <v>86.696832579185525</v>
       </c>
-      <c r="N5" s="85" t="s">
+      <c r="N5" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="O5" s="82">
+      <c r="O5" s="72">
         <v>9.0401000000000007</v>
       </c>
-      <c r="P5" s="63">
+      <c r="P5" s="55">
         <v>21.619900000000001</v>
       </c>
-      <c r="Q5" s="62">
+      <c r="Q5" s="54">
         <v>30.660000000000004</v>
       </c>
       <c r="R5" s="9">
@@ -1841,19 +2009,19 @@
       <c r="S5" s="9">
         <v>1</v>
       </c>
-      <c r="T5" s="64">
+      <c r="T5" s="56">
         <v>0.17142857142857143</v>
       </c>
-      <c r="U5" s="91">
-        <v>20</v>
-      </c>
-      <c r="V5" s="92">
+      <c r="U5" s="81">
+        <v>20</v>
+      </c>
+      <c r="V5" s="82">
         <v>3</v>
       </c>
-      <c r="W5" s="93">
+      <c r="W5" s="83">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="X5" s="91"/>
+      <c r="X5" s="81"/>
     </row>
     <row r="6" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
@@ -1865,37 +2033,37 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="73">
+      <c r="E6" s="65">
         <v>2</v>
       </c>
-      <c r="F6" s="54">
+      <c r="F6" s="46">
         <v>130</v>
       </c>
-      <c r="G6" s="53">
+      <c r="G6" s="45">
         <v>0.46153846153846156</v>
       </c>
       <c r="H6">
         <v>20</v>
       </c>
-      <c r="I6" s="69">
+      <c r="I6" s="61">
         <v>18.461538461538463</v>
       </c>
-      <c r="J6" s="59" t="s">
+      <c r="J6" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="75">
+      <c r="K6" s="67">
         <v>134.75698295512538</v>
       </c>
-      <c r="N6" s="85" t="s">
+      <c r="N6" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="O6" s="82">
+      <c r="O6" s="72">
         <v>13.282500000000001</v>
       </c>
-      <c r="P6" s="63">
+      <c r="P6" s="55">
         <v>32.189</v>
       </c>
-      <c r="Q6" s="62">
+      <c r="Q6" s="54">
         <v>45.471499999999999</v>
       </c>
       <c r="R6" s="9">
@@ -1904,19 +2072,19 @@
       <c r="S6" s="9">
         <v>2</v>
       </c>
-      <c r="T6" s="64">
+      <c r="T6" s="56">
         <v>0.70588235294117652</v>
       </c>
-      <c r="U6" s="91">
-        <v>20</v>
-      </c>
-      <c r="V6" s="92">
+      <c r="U6" s="81">
+        <v>20</v>
+      </c>
+      <c r="V6" s="82">
         <v>28</v>
       </c>
-      <c r="W6" s="93">
+      <c r="W6" s="83">
         <v>0.16666666666666666</v>
       </c>
-      <c r="X6" s="91"/>
+      <c r="X6" s="81"/>
     </row>
     <row r="7" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
@@ -1928,37 +2096,37 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="73">
+      <c r="E7" s="65">
         <v>2</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="46">
         <v>130</v>
       </c>
-      <c r="G7" s="53">
+      <c r="G7" s="45">
         <v>0.46153846153846156</v>
       </c>
       <c r="H7">
         <v>20</v>
       </c>
-      <c r="I7" s="69">
+      <c r="I7" s="61">
         <v>18.461538461538463</v>
       </c>
-      <c r="J7" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="75">
+      <c r="J7" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="67">
         <v>94.696832579185525</v>
       </c>
-      <c r="N7" s="85" t="s">
+      <c r="N7" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="82">
+      <c r="O7" s="72">
         <v>13.821400000000001</v>
       </c>
-      <c r="P7" s="63">
+      <c r="P7" s="55">
         <v>32.438800000000001</v>
       </c>
-      <c r="Q7" s="62">
+      <c r="Q7" s="54">
         <v>46.260199999999998</v>
       </c>
       <c r="R7" s="9">
@@ -1967,19 +2135,19 @@
       <c r="S7" s="9">
         <v>2</v>
       </c>
-      <c r="T7" s="64">
+      <c r="T7" s="56">
         <v>0.6</v>
       </c>
-      <c r="U7" s="91">
-        <v>20</v>
-      </c>
-      <c r="V7" s="92">
+      <c r="U7" s="81">
+        <v>20</v>
+      </c>
+      <c r="V7" s="82">
         <v>24</v>
       </c>
-      <c r="W7" s="93">
+      <c r="W7" s="83">
         <v>0.16666666666666666</v>
       </c>
-      <c r="X7" s="91"/>
+      <c r="X7" s="81"/>
     </row>
     <row r="8" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
@@ -1991,37 +2159,37 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="73">
+      <c r="E8" s="65">
         <v>2</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="46">
         <v>130</v>
       </c>
-      <c r="G8" s="53">
+      <c r="G8" s="45">
         <v>0.46153846153846156</v>
       </c>
       <c r="H8">
         <v>20</v>
       </c>
-      <c r="I8" s="69">
+      <c r="I8" s="61">
         <v>18.461538461538463</v>
       </c>
-      <c r="J8" s="59" t="s">
+      <c r="J8" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="75">
+      <c r="K8" s="67">
         <v>58.461538461538467</v>
       </c>
-      <c r="N8" s="85" t="s">
+      <c r="N8" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="O8" s="82">
+      <c r="O8" s="72">
         <v>16.680700000000002</v>
       </c>
-      <c r="P8" s="63">
+      <c r="P8" s="55">
         <v>28.508800000000001</v>
       </c>
-      <c r="Q8" s="62">
+      <c r="Q8" s="54">
         <v>45.189500000000002</v>
       </c>
       <c r="R8" s="9">
@@ -2030,19 +2198,19 @@
       <c r="S8" s="9">
         <v>3</v>
       </c>
-      <c r="T8" s="64">
+      <c r="T8" s="56">
         <v>0.66666666666666663</v>
       </c>
-      <c r="U8" s="91">
-        <v>20</v>
-      </c>
-      <c r="V8" s="92">
+      <c r="U8" s="81">
+        <v>20</v>
+      </c>
+      <c r="V8" s="82">
         <v>40</v>
       </c>
-      <c r="W8" s="93">
+      <c r="W8" s="83">
         <v>0.25</v>
       </c>
-      <c r="X8" s="91"/>
+      <c r="X8" s="81"/>
     </row>
     <row r="9" spans="2:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="15" t="s">
@@ -2054,10 +2222,10 @@
       <c r="D9" s="17">
         <v>1</v>
       </c>
-      <c r="E9" s="74">
+      <c r="E9" s="66">
         <v>2</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="48">
         <v>130</v>
       </c>
       <c r="G9" s="18">
@@ -2066,25 +2234,25 @@
       <c r="H9" s="17">
         <v>20</v>
       </c>
-      <c r="I9" s="70">
+      <c r="I9" s="62">
         <v>18.461538461538463</v>
       </c>
-      <c r="J9" s="59" t="s">
+      <c r="J9" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="75">
+      <c r="K9" s="67">
         <v>24</v>
       </c>
-      <c r="N9" s="85" t="s">
+      <c r="N9" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="O9" s="82">
+      <c r="O9" s="72">
         <v>15.7179</v>
       </c>
-      <c r="P9" s="63">
+      <c r="P9" s="55">
         <v>19.445099999999996</v>
       </c>
-      <c r="Q9" s="62">
+      <c r="Q9" s="54">
         <v>35.162999999999997</v>
       </c>
       <c r="R9" s="9">
@@ -2093,19 +2261,19 @@
       <c r="S9" s="9">
         <v>1</v>
       </c>
-      <c r="T9" s="64">
+      <c r="T9" s="56">
         <v>0.63157894736842102</v>
       </c>
-      <c r="U9" s="91">
-        <v>20</v>
-      </c>
-      <c r="V9" s="92">
+      <c r="U9" s="81">
+        <v>20</v>
+      </c>
+      <c r="V9" s="82">
         <v>13</v>
       </c>
-      <c r="W9" s="93">
+      <c r="W9" s="83">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="X9" s="91"/>
+      <c r="X9" s="81"/>
     </row>
     <row r="10" spans="2:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="19" t="s">
@@ -2117,10 +2285,10 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="71">
+      <c r="E10" s="63">
         <v>2</v>
       </c>
-      <c r="F10" s="72">
+      <c r="F10" s="64">
         <v>100</v>
       </c>
       <c r="G10" s="8">
@@ -2129,46 +2297,46 @@
       <c r="H10" s="3">
         <v>20</v>
       </c>
-      <c r="I10" s="68">
+      <c r="I10" s="60">
         <v>24</v>
       </c>
-      <c r="J10" s="59" t="s">
+      <c r="J10" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="75">
+      <c r="K10" s="67">
         <v>55.093117408906892</v>
       </c>
-      <c r="N10" s="86" t="s">
+      <c r="N10" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="O10" s="83">
+      <c r="O10" s="73">
         <v>13.282500000000001</v>
       </c>
-      <c r="P10" s="65">
+      <c r="P10" s="57">
         <v>32.189</v>
       </c>
-      <c r="Q10" s="66">
+      <c r="Q10" s="58">
         <v>45.471499999999999</v>
       </c>
-      <c r="R10" s="55">
+      <c r="R10" s="47">
         <v>150</v>
       </c>
-      <c r="S10" s="55">
-        <v>1</v>
-      </c>
-      <c r="T10" s="67">
+      <c r="S10" s="47">
+        <v>1</v>
+      </c>
+      <c r="T10" s="59">
         <v>0.4</v>
       </c>
-      <c r="U10" s="91">
-        <v>20</v>
-      </c>
-      <c r="V10" s="92">
+      <c r="U10" s="81">
+        <v>20</v>
+      </c>
+      <c r="V10" s="82">
         <v>8</v>
       </c>
-      <c r="W10" s="93">
+      <c r="W10" s="83">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="X10" s="91"/>
+      <c r="X10" s="81"/>
     </row>
     <row r="11" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="19" t="s">
@@ -2180,38 +2348,38 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="73">
+      <c r="E11" s="65">
         <v>2</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="46">
         <v>100</v>
       </c>
-      <c r="G11" s="53">
+      <c r="G11" s="45">
         <v>0.6</v>
       </c>
       <c r="H11">
         <v>20</v>
       </c>
-      <c r="I11" s="69">
+      <c r="I11" s="61">
         <v>24</v>
       </c>
-      <c r="J11" s="59" t="s">
+      <c r="J11" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="75">
+      <c r="K11" s="67">
         <v>3.4285714285714288</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="91"/>
-      <c r="V11" s="92">
+      <c r="U11" s="81"/>
+      <c r="V11" s="82">
         <v>134</v>
       </c>
-      <c r="W11" s="93">
-        <v>1</v>
-      </c>
-      <c r="X11" s="91"/>
+      <c r="W11" s="83">
+        <v>1</v>
+      </c>
+      <c r="X11" s="81"/>
     </row>
     <row r="12" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="19" t="s">
@@ -2223,25 +2391,25 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" s="73">
+      <c r="E12" s="65">
         <v>2</v>
       </c>
-      <c r="F12" s="54">
+      <c r="F12" s="46">
         <v>100</v>
       </c>
-      <c r="G12" s="53">
+      <c r="G12" s="45">
         <v>0.6</v>
       </c>
       <c r="H12">
         <v>20</v>
       </c>
-      <c r="I12" s="69">
+      <c r="I12" s="61">
         <v>24</v>
       </c>
-      <c r="J12" s="59" t="s">
+      <c r="J12" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="75">
+      <c r="K12" s="67">
         <v>591.89085836763854</v>
       </c>
       <c r="O12" s="1"/>
@@ -2261,10 +2429,10 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" s="74">
+      <c r="E13" s="66">
         <v>2</v>
       </c>
-      <c r="F13" s="56">
+      <c r="F13" s="48">
         <v>100</v>
       </c>
       <c r="G13" s="18">
@@ -2273,7 +2441,7 @@
       <c r="H13" s="17">
         <v>20</v>
       </c>
-      <c r="I13" s="70">
+      <c r="I13" s="62">
         <v>24</v>
       </c>
       <c r="O13" s="1"/>
@@ -2293,10 +2461,10 @@
       <c r="D14" s="3">
         <v>1</v>
       </c>
-      <c r="E14" s="71">
-        <v>1</v>
-      </c>
-      <c r="F14" s="72">
+      <c r="E14" s="63">
+        <v>1</v>
+      </c>
+      <c r="F14" s="64">
         <v>350</v>
       </c>
       <c r="G14" s="8">
@@ -2305,7 +2473,7 @@
       <c r="H14" s="3">
         <v>20</v>
       </c>
-      <c r="I14" s="68">
+      <c r="I14" s="60">
         <v>3.4285714285714288</v>
       </c>
       <c r="J14" s="1"/>
@@ -2326,19 +2494,19 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" s="73">
-        <v>1</v>
-      </c>
-      <c r="F15" s="54">
+      <c r="E15" s="65">
+        <v>1</v>
+      </c>
+      <c r="F15" s="46">
         <v>350</v>
       </c>
-      <c r="G15" s="53">
+      <c r="G15" s="45">
         <v>0.17142857142857143</v>
       </c>
       <c r="H15">
         <v>20</v>
       </c>
-      <c r="I15" s="69">
+      <c r="I15" s="61">
         <v>3.4285714285714288</v>
       </c>
       <c r="J15" s="1"/>
@@ -2358,10 +2526,10 @@
       <c r="D16" s="17">
         <v>1</v>
       </c>
-      <c r="E16" s="74">
-        <v>1</v>
-      </c>
-      <c r="F16" s="56">
+      <c r="E16" s="66">
+        <v>1</v>
+      </c>
+      <c r="F16" s="48">
         <v>350</v>
       </c>
       <c r="G16" s="18">
@@ -2370,7 +2538,7 @@
       <c r="H16" s="17">
         <v>20</v>
       </c>
-      <c r="I16" s="70">
+      <c r="I16" s="62">
         <v>3.4285714285714288</v>
       </c>
       <c r="J16" s="1"/>
@@ -2390,10 +2558,10 @@
       <c r="D17" s="3">
         <v>1</v>
       </c>
-      <c r="E17" s="71">
+      <c r="E17" s="63">
         <v>2</v>
       </c>
-      <c r="F17" s="72">
+      <c r="F17" s="64">
         <v>85</v>
       </c>
       <c r="G17" s="8">
@@ -2402,7 +2570,7 @@
       <c r="H17" s="3">
         <v>20</v>
       </c>
-      <c r="I17" s="68">
+      <c r="I17" s="60">
         <v>28.235294117647062</v>
       </c>
       <c r="J17" s="1"/>
@@ -2418,19 +2586,19 @@
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" s="73">
+      <c r="E18" s="65">
         <v>2</v>
       </c>
-      <c r="F18" s="54">
+      <c r="F18" s="46">
         <v>85</v>
       </c>
-      <c r="G18" s="53">
+      <c r="G18" s="45">
         <v>0.70588235294117652</v>
       </c>
       <c r="H18">
         <v>20</v>
       </c>
-      <c r="I18" s="69">
+      <c r="I18" s="61">
         <v>28.235294117647062</v>
       </c>
       <c r="J18" s="1"/>
@@ -2445,19 +2613,19 @@
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" s="73">
+      <c r="E19" s="65">
         <v>2</v>
       </c>
-      <c r="F19" s="54">
+      <c r="F19" s="46">
         <v>85</v>
       </c>
-      <c r="G19" s="53">
+      <c r="G19" s="45">
         <v>0.70588235294117652</v>
       </c>
       <c r="H19">
         <v>20</v>
       </c>
-      <c r="I19" s="69">
+      <c r="I19" s="61">
         <v>28.235294117647062</v>
       </c>
       <c r="J19" s="1"/>
@@ -2472,10 +2640,10 @@
       <c r="D20" s="17">
         <v>1</v>
       </c>
-      <c r="E20" s="74">
+      <c r="E20" s="66">
         <v>2</v>
       </c>
-      <c r="F20" s="56">
+      <c r="F20" s="48">
         <v>85</v>
       </c>
       <c r="G20" s="18">
@@ -2484,7 +2652,7 @@
       <c r="H20" s="17">
         <v>20</v>
       </c>
-      <c r="I20" s="70">
+      <c r="I20" s="62">
         <v>28.235294117647062</v>
       </c>
     </row>
@@ -2498,10 +2666,10 @@
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21" s="71">
+      <c r="E21" s="63">
         <v>3</v>
       </c>
-      <c r="F21" s="72">
+      <c r="F21" s="64">
         <v>90</v>
       </c>
       <c r="G21" s="8">
@@ -2510,7 +2678,7 @@
       <c r="H21" s="3">
         <v>20</v>
       </c>
-      <c r="I21" s="68">
+      <c r="I21" s="60">
         <v>40</v>
       </c>
     </row>
@@ -2524,19 +2692,19 @@
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="73">
+      <c r="E22" s="65">
         <v>3</v>
       </c>
-      <c r="F22" s="54">
+      <c r="F22" s="46">
         <v>90</v>
       </c>
-      <c r="G22" s="53">
+      <c r="G22" s="45">
         <v>0.66666666666666663</v>
       </c>
       <c r="H22">
         <v>20</v>
       </c>
-      <c r="I22" s="69">
+      <c r="I22" s="61">
         <v>40</v>
       </c>
     </row>
@@ -2550,19 +2718,19 @@
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" s="73">
+      <c r="E23" s="65">
         <v>3</v>
       </c>
-      <c r="F23" s="54">
+      <c r="F23" s="46">
         <v>90</v>
       </c>
-      <c r="G23" s="53">
+      <c r="G23" s="45">
         <v>0.66666666666666663</v>
       </c>
       <c r="H23">
         <v>20</v>
       </c>
-      <c r="I23" s="69">
+      <c r="I23" s="61">
         <v>40</v>
       </c>
     </row>
@@ -2576,19 +2744,19 @@
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="73">
+      <c r="E24" s="65">
         <v>3</v>
       </c>
-      <c r="F24" s="54">
+      <c r="F24" s="46">
         <v>90</v>
       </c>
-      <c r="G24" s="53">
+      <c r="G24" s="45">
         <v>0.66666666666666663</v>
       </c>
       <c r="H24">
         <v>20</v>
       </c>
-      <c r="I24" s="69">
+      <c r="I24" s="61">
         <v>40</v>
       </c>
     </row>
@@ -2602,10 +2770,10 @@
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25" s="74">
+      <c r="E25" s="66">
         <v>3</v>
       </c>
-      <c r="F25" s="56">
+      <c r="F25" s="48">
         <v>90</v>
       </c>
       <c r="G25" s="18">
@@ -2614,7 +2782,7 @@
       <c r="H25" s="17">
         <v>20</v>
       </c>
-      <c r="I25" s="70">
+      <c r="I25" s="62">
         <v>40</v>
       </c>
     </row>
@@ -2628,10 +2796,10 @@
       <c r="D26" s="3">
         <v>1</v>
       </c>
-      <c r="E26" s="71">
-        <v>1</v>
-      </c>
-      <c r="F26" s="72">
+      <c r="E26" s="63">
+        <v>1</v>
+      </c>
+      <c r="F26" s="64">
         <v>95</v>
       </c>
       <c r="G26" s="8">
@@ -2640,7 +2808,7 @@
       <c r="H26" s="3">
         <v>20</v>
       </c>
-      <c r="I26" s="68">
+      <c r="I26" s="60">
         <v>12.631578947368421</v>
       </c>
     </row>
@@ -2654,19 +2822,19 @@
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" s="73">
-        <v>1</v>
-      </c>
-      <c r="F27" s="54">
+      <c r="E27" s="65">
+        <v>1</v>
+      </c>
+      <c r="F27" s="46">
         <v>95</v>
       </c>
-      <c r="G27" s="53">
+      <c r="G27" s="45">
         <v>0.63157894736842102</v>
       </c>
       <c r="H27">
         <v>20</v>
       </c>
-      <c r="I27" s="69">
+      <c r="I27" s="61">
         <v>12.631578947368421</v>
       </c>
     </row>
@@ -2680,10 +2848,10 @@
       <c r="D28" s="17">
         <v>1</v>
       </c>
-      <c r="E28" s="74">
-        <v>1</v>
-      </c>
-      <c r="F28" s="56">
+      <c r="E28" s="66">
+        <v>1</v>
+      </c>
+      <c r="F28" s="48">
         <v>95</v>
       </c>
       <c r="G28" s="18">
@@ -2692,7 +2860,7 @@
       <c r="H28" s="17">
         <v>20</v>
       </c>
-      <c r="I28" s="70">
+      <c r="I28" s="62">
         <v>12.631578947368421</v>
       </c>
     </row>
@@ -2706,10 +2874,10 @@
       <c r="D29" s="3">
         <v>1</v>
       </c>
-      <c r="E29" s="71">
-        <v>1</v>
-      </c>
-      <c r="F29" s="72">
+      <c r="E29" s="63">
+        <v>1</v>
+      </c>
+      <c r="F29" s="64">
         <v>150</v>
       </c>
       <c r="G29" s="8">
@@ -2718,7 +2886,7 @@
       <c r="H29" s="3">
         <v>20</v>
       </c>
-      <c r="I29" s="68">
+      <c r="I29" s="60">
         <v>8</v>
       </c>
     </row>
@@ -2729,22 +2897,22 @@
       <c r="C30" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="52">
-        <v>1</v>
-      </c>
-      <c r="E30" s="73">
-        <v>1</v>
-      </c>
-      <c r="F30" s="54">
+      <c r="D30" s="44">
+        <v>1</v>
+      </c>
+      <c r="E30" s="65">
+        <v>1</v>
+      </c>
+      <c r="F30" s="46">
         <v>150</v>
       </c>
-      <c r="G30" s="53">
+      <c r="G30" s="45">
         <v>0.4</v>
       </c>
       <c r="H30">
         <v>20</v>
       </c>
-      <c r="I30" s="69">
+      <c r="I30" s="61">
         <v>8</v>
       </c>
     </row>
@@ -2758,10 +2926,10 @@
       <c r="D31" s="17">
         <v>1</v>
       </c>
-      <c r="E31" s="74">
-        <v>1</v>
-      </c>
-      <c r="F31" s="56">
+      <c r="E31" s="66">
+        <v>1</v>
+      </c>
+      <c r="F31" s="48">
         <v>150</v>
       </c>
       <c r="G31" s="18">
@@ -2770,243 +2938,245 @@
       <c r="H31" s="17">
         <v>20</v>
       </c>
-      <c r="I31" s="70">
+      <c r="I31" s="62">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="76" t="s">
+      <c r="B33" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="77"/>
-      <c r="D33" s="96" t="s">
+      <c r="C33" s="99"/>
+      <c r="D33" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="96" t="s">
+      <c r="E33" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="H33" s="97" t="s">
+      <c r="H33" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="I33" s="98"/>
-      <c r="J33" s="99"/>
+      <c r="I33" s="106"/>
+      <c r="J33" s="107" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="34" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="45">
+      <c r="C34" s="116">
         <v>422</v>
       </c>
-      <c r="D34" s="46">
+      <c r="D34" s="117">
         <v>404.27094886537611</v>
       </c>
-      <c r="E34" s="103">
+      <c r="E34" s="118">
         <v>-4.3854378318259446E-2</v>
       </c>
-      <c r="H34" s="100">
+      <c r="H34" s="111">
         <v>140.66666666666666</v>
       </c>
-      <c r="I34" s="99">
+      <c r="I34" s="112">
         <v>135</v>
       </c>
-      <c r="J34" s="101">
+      <c r="J34" s="113">
         <v>-4.1975308641975184E-2</v>
       </c>
-      <c r="L34" s="60"/>
+      <c r="L34" s="52"/>
     </row>
     <row r="35" spans="2:12" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="45">
+      <c r="B35" s="115" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="116">
         <v>282</v>
       </c>
-      <c r="D35" s="47">
+      <c r="D35" s="119">
         <v>284.09049773755657</v>
       </c>
-      <c r="E35" s="104">
+      <c r="E35" s="120">
         <v>7.3585626911315538E-3</v>
       </c>
-      <c r="H35" s="102">
+      <c r="H35" s="114">
         <v>94</v>
       </c>
-      <c r="I35" s="99">
+      <c r="I35" s="112">
         <v>94</v>
       </c>
-      <c r="J35" s="101">
+      <c r="J35" s="113">
         <v>0</v>
       </c>
-      <c r="L35" s="60"/>
+      <c r="L35" s="52"/>
     </row>
     <row r="36" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="45">
+      <c r="C36" s="116">
         <v>251</v>
       </c>
-      <c r="D36" s="47">
+      <c r="D36" s="119">
         <v>260.09049773755657</v>
       </c>
-      <c r="E36" s="104">
+      <c r="E36" s="120">
         <v>3.4951287404314635E-2</v>
       </c>
-      <c r="H36" s="100">
+      <c r="H36" s="111">
         <v>83.666666666666671</v>
       </c>
-      <c r="I36" s="99">
+      <c r="I36" s="112">
         <v>86</v>
       </c>
-      <c r="J36" s="101">
+      <c r="J36" s="113">
         <v>2.7131782945736371E-2</v>
       </c>
-      <c r="L36" s="60"/>
+      <c r="L36" s="52"/>
     </row>
     <row r="37" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="45">
+      <c r="C37" s="116">
         <v>175</v>
       </c>
-      <c r="D37" s="47">
+      <c r="D37" s="119">
         <v>175.38461538461542</v>
       </c>
-      <c r="E37" s="104">
+      <c r="E37" s="120">
         <v>2.1929824561405242E-3</v>
       </c>
-      <c r="H37" s="100">
+      <c r="H37" s="111">
         <v>58.333333333333336</v>
       </c>
-      <c r="I37" s="99">
+      <c r="I37" s="112">
         <v>58</v>
       </c>
-      <c r="J37" s="101">
+      <c r="J37" s="113">
         <v>-5.7471264367816577E-3</v>
       </c>
-      <c r="L37" s="60"/>
+      <c r="L37" s="52"/>
     </row>
     <row r="38" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="45">
+      <c r="C38" s="116">
         <v>159</v>
       </c>
-      <c r="D38" s="47">
+      <c r="D38" s="119">
         <v>165.27935222672068</v>
       </c>
-      <c r="E38" s="104">
+      <c r="E38" s="120">
         <v>3.7992357436802071E-2</v>
       </c>
-      <c r="H38" s="102">
+      <c r="H38" s="114">
         <v>53</v>
       </c>
-      <c r="I38" s="99">
+      <c r="I38" s="112">
         <v>55</v>
       </c>
-      <c r="J38" s="101">
+      <c r="J38" s="113">
         <v>3.6363636363636376E-2</v>
       </c>
-      <c r="L38" s="60"/>
+      <c r="L38" s="52"/>
     </row>
     <row r="39" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="45">
+      <c r="C39" s="116">
         <v>73</v>
       </c>
-      <c r="D39" s="47">
+      <c r="D39" s="119">
         <v>72</v>
       </c>
-      <c r="E39" s="104">
+      <c r="E39" s="120">
         <v>-1.388888888888884E-2</v>
       </c>
-      <c r="H39" s="100">
+      <c r="H39" s="111">
         <v>24.333333333333332</v>
       </c>
-      <c r="I39" s="99">
+      <c r="I39" s="112">
         <v>24</v>
       </c>
-      <c r="J39" s="101">
+      <c r="J39" s="113">
         <v>-1.388888888888884E-2</v>
       </c>
-      <c r="L39" s="60"/>
+      <c r="L39" s="52"/>
     </row>
     <row r="40" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="44" t="s">
+      <c r="B40" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="45">
+      <c r="C40" s="116">
         <v>422</v>
       </c>
-      <c r="D40" s="47">
+      <c r="D40" s="119">
         <v>404.27094886537611</v>
       </c>
-      <c r="E40" s="104">
+      <c r="E40" s="120">
         <v>-4.3854378318259446E-2</v>
       </c>
-      <c r="H40" s="100">
+      <c r="H40" s="111">
         <v>140.66666666666666</v>
       </c>
-      <c r="I40" s="99">
+      <c r="I40" s="112">
         <v>135</v>
       </c>
-      <c r="J40" s="101">
+      <c r="J40" s="113">
         <v>-4.1975308641975184E-2</v>
       </c>
-      <c r="L40" s="60"/>
+      <c r="L40" s="52"/>
     </row>
     <row r="41" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="48" t="s">
+      <c r="B41" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="49">
+      <c r="C41" s="122">
         <v>10</v>
       </c>
-      <c r="D41" s="50">
+      <c r="D41" s="123">
         <v>10.285714285714286</v>
       </c>
-      <c r="E41" s="104">
+      <c r="E41" s="120">
         <v>2.7777777777777901E-2</v>
       </c>
-      <c r="H41" s="100">
+      <c r="H41" s="111">
         <v>3.3333333333333335</v>
       </c>
-      <c r="I41" s="99">
+      <c r="I41" s="112">
         <v>3</v>
       </c>
-      <c r="J41" s="101">
+      <c r="J41" s="113">
         <v>-0.11111111111111116</v>
       </c>
-      <c r="L41" s="60"/>
+      <c r="L41" s="52"/>
     </row>
     <row r="42" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="45">
+      <c r="C42" s="102">
         <v>1688</v>
       </c>
-      <c r="D42" s="106">
+      <c r="D42" s="103">
         <v>1775.6725751029157</v>
       </c>
-      <c r="E42" s="105">
+      <c r="E42" s="104">
         <v>4.9374291371163559E-2</v>
       </c>
-      <c r="H42" s="100">
+      <c r="H42" s="108">
         <v>562.66666666666663</v>
       </c>
-      <c r="I42" s="99">
+      <c r="I42" s="109">
         <v>590</v>
       </c>
-      <c r="J42" s="101">
+      <c r="J42" s="110">
         <v>4.6327683615819293E-2</v>
       </c>
-      <c r="L42" s="60"/>
+      <c r="L42" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3017,4 +3187,557 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D237413-149B-44B2-A419-32844F8BB9D9}">
+  <dimension ref="C5:G41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="97" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+    </row>
+    <row r="7" spans="3:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C7" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="85" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="87" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="88">
+        <v>404.27094886537611</v>
+      </c>
+      <c r="F8" s="87">
+        <f>135*3</f>
+        <v>405</v>
+      </c>
+      <c r="G8" s="89">
+        <f>1-E8/F8</f>
+        <v>1.8001262583305921E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="88">
+        <v>284.09049773755657</v>
+      </c>
+      <c r="F9" s="87">
+        <f>94*3</f>
+        <v>282</v>
+      </c>
+      <c r="G9" s="89">
+        <f t="shared" ref="G9:G15" si="0">1-E9/F9</f>
+        <v>-7.413112544526923E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C10" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="88">
+        <v>260.09049773755657</v>
+      </c>
+      <c r="F10" s="87">
+        <f>86*3</f>
+        <v>258</v>
+      </c>
+      <c r="G10" s="89">
+        <f t="shared" si="0"/>
+        <v>-8.1027044091339651E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="88">
+        <v>175.38461538461542</v>
+      </c>
+      <c r="F11" s="87">
+        <f>58*3</f>
+        <v>174</v>
+      </c>
+      <c r="G11" s="89">
+        <f t="shared" si="0"/>
+        <v>-7.9575596816978678E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="88">
+        <v>165.27935222672068</v>
+      </c>
+      <c r="F12" s="90">
+        <f>55*3</f>
+        <v>165</v>
+      </c>
+      <c r="G12" s="89">
+        <f t="shared" si="0"/>
+        <v>-1.6930437983071478E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="88">
+        <v>72</v>
+      </c>
+      <c r="F13" s="87">
+        <f>24*3</f>
+        <v>72</v>
+      </c>
+      <c r="G13" s="89">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="88">
+        <v>404.27094886537611</v>
+      </c>
+      <c r="F14" s="87">
+        <f>135*3</f>
+        <v>405</v>
+      </c>
+      <c r="G14" s="89">
+        <f t="shared" si="0"/>
+        <v>1.8001262583305921E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="91" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="88">
+        <v>10.285714285714286</v>
+      </c>
+      <c r="F15" s="87">
+        <f>3*3</f>
+        <v>9</v>
+      </c>
+      <c r="G15" s="89">
+        <f t="shared" si="0"/>
+        <v>-0.14285714285714302</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="97" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+    </row>
+    <row r="21" spans="3:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C21" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="93" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="92" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="92" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="87" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="88">
+        <f t="shared" ref="E22:E29" si="1">4*E8</f>
+        <v>1617.0837954615045</v>
+      </c>
+      <c r="F22" s="94">
+        <f>541*3</f>
+        <v>1623</v>
+      </c>
+      <c r="G22" s="89">
+        <f>1-E22/F22</f>
+        <v>3.6452276885370338E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C23" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="88">
+        <f t="shared" si="1"/>
+        <v>1136.3619909502263</v>
+      </c>
+      <c r="F23" s="94">
+        <f>378*3</f>
+        <v>1134</v>
+      </c>
+      <c r="G23" s="89">
+        <f t="shared" ref="G23:G29" si="2">1-E23/F23</f>
+        <v>-2.0828844358256049E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C24" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="88">
+        <f t="shared" si="1"/>
+        <v>1040.3619909502263</v>
+      </c>
+      <c r="F24" s="94">
+        <f>348*3</f>
+        <v>1044</v>
+      </c>
+      <c r="G24" s="89">
+        <f t="shared" si="2"/>
+        <v>3.4846829978675276E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C25" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="88">
+        <f t="shared" si="1"/>
+        <v>701.53846153846166</v>
+      </c>
+      <c r="F25" s="94">
+        <f>232*3</f>
+        <v>696</v>
+      </c>
+      <c r="G25" s="89">
+        <f t="shared" si="2"/>
+        <v>-7.9575596816978678E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="88">
+        <f t="shared" si="1"/>
+        <v>661.1174089068827</v>
+      </c>
+      <c r="F26" s="94">
+        <f>222*3</f>
+        <v>666</v>
+      </c>
+      <c r="G26" s="89">
+        <f t="shared" si="2"/>
+        <v>7.3312178575334341E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="88">
+        <f t="shared" si="1"/>
+        <v>288</v>
+      </c>
+      <c r="F27" s="94">
+        <f>95*3</f>
+        <v>285</v>
+      </c>
+      <c r="G27" s="89">
+        <f t="shared" si="2"/>
+        <v>-1.0526315789473717E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="88">
+        <f t="shared" si="1"/>
+        <v>1617.0837954615045</v>
+      </c>
+      <c r="F28" s="94">
+        <f>542*3</f>
+        <v>1626</v>
+      </c>
+      <c r="G28" s="89">
+        <f t="shared" si="2"/>
+        <v>5.4835206263810221E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="91" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="88">
+        <f t="shared" si="1"/>
+        <v>41.142857142857146</v>
+      </c>
+      <c r="F29" s="90">
+        <f>14*3</f>
+        <v>42</v>
+      </c>
+      <c r="G29" s="89">
+        <f t="shared" si="2"/>
+        <v>2.0408163265306034E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="97" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="97"/>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C33" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="95" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="95" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C34" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="87" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="88">
+        <v>1617</v>
+      </c>
+      <c r="F34" s="94">
+        <v>1593</v>
+      </c>
+      <c r="G34" s="89">
+        <v>-1.5100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="88">
+        <v>1136</v>
+      </c>
+      <c r="F35" s="94">
+        <v>1109</v>
+      </c>
+      <c r="G35" s="89">
+        <v>-2.47E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C36" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="88">
+        <v>1040</v>
+      </c>
+      <c r="F36" s="94">
+        <v>1014</v>
+      </c>
+      <c r="G36" s="89">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C37" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="88">
+        <v>702</v>
+      </c>
+      <c r="F37" s="94">
+        <v>671</v>
+      </c>
+      <c r="G37" s="89">
+        <v>-4.5499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="88">
+        <v>661</v>
+      </c>
+      <c r="F38" s="94">
+        <v>632</v>
+      </c>
+      <c r="G38" s="89">
+        <v>-4.6100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="88">
+        <v>288</v>
+      </c>
+      <c r="F39" s="94">
+        <v>288</v>
+      </c>
+      <c r="G39" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="88">
+        <v>1617</v>
+      </c>
+      <c r="F40" s="94">
+        <v>1591</v>
+      </c>
+      <c r="G40" s="89">
+        <v>-1.6400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="91" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="88">
+        <v>41</v>
+      </c>
+      <c r="F41" s="90">
+        <v>41</v>
+      </c>
+      <c r="G41" s="89">
+        <v>-3.5000000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C31:G31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>